--- a/Recycling/Met_rec_tech/metrec_tech_Avg_full_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_full_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.011919953732144E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.366242901531529E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.551951898390506E-06</v>
+      </c>
+      <c r="E7">
         <v>13.00812183510451</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.350539529536059E-08</v>
-      </c>
-      <c r="F7">
-        <v>7.551951898390506E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34.66524613401938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1391.376648107141</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>93.45144791388084</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1002368.736994785</v>
+      </c>
+      <c r="E7">
         <v>2405074.692722367</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>176299.5515859751</v>
-      </c>
-      <c r="F7">
-        <v>1002368.736994785</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6409265.476659955</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1353.391575756767</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.90019048471159</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>964433.1969472056</v>
+      </c>
+      <c r="E7">
         <v>2472037.237044166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>171486.5117585192</v>
-      </c>
-      <c r="F7">
-        <v>964433.1969472056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6587713.457859748</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.933902968811576E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.328785135587431E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0001006947732672522</v>
+      </c>
+      <c r="E7">
         <v>26.53984060695753</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.005294675335394E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0001006947732672522</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70.72582181041925</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.034349444252009E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.947180933772932E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.001122790647547266</v>
+      </c>
+      <c r="E7">
         <v>56.25502867209739</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.310610922304265E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.001122790647547266</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>149.9136032022648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.298881321953309E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.24556926909818E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.008783898392666791</v>
+      </c>
+      <c r="E7">
         <v>100.1798163164796</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0001178249332804189</v>
-      </c>
-      <c r="F7">
-        <v>0.008783898392666791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>266.9684397404567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.641932393899192E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.132683864152915E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0638812744179066</v>
+      </c>
+      <c r="E7">
         <v>193.330058672822</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0009682994580422342</v>
-      </c>
-      <c r="F7">
-        <v>0.0638812744179066</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>515.2038206554772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.118096523779135E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.437556116532797E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.3844339336027771</v>
+      </c>
+      <c r="E7">
         <v>351.7456802442065</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.006485074500449125</v>
-      </c>
-      <c r="F7">
-        <v>0.3844339336027771</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>937.3644202299658</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002471073193406742</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.659689834087651E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.690402986406929</v>
+      </c>
+      <c r="E7">
         <v>520.6830620331123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.03131065168632797</v>
-      </c>
-      <c r="F7">
-        <v>1.690402986406929</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1387.564379546551</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001255618544009554</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.433329043206434E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.914692340817174</v>
+      </c>
+      <c r="E7">
         <v>894.2326236119698</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1590978162333463</v>
-      </c>
-      <c r="F7">
-        <v>7.914692340817174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2383.033799308645</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.005845213862957545</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0003925922571740679</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34.29347884619464</v>
+      </c>
+      <c r="E7">
         <v>1520.958438008599</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.7406395560579996</v>
-      </c>
-      <c r="F7">
-        <v>34.29347884619464</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4053.190712812705</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02529796797616678</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001699131388950641</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139.3149214297441</v>
+      </c>
+      <c r="E7">
         <v>2561.681565245662</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.205473094795768</v>
-      </c>
-      <c r="F7">
-        <v>139.3149214297441</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6826.605954487314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.09108170573202788</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.006117478894520439</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>473.9078353836624</v>
+      </c>
+      <c r="E7">
         <v>3783.377949262688</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11.54084618287036</v>
-      </c>
-      <c r="F7">
-        <v>473.9078353836624</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10082.29546830339</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3263330588503153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.02191807437131813</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1609.901108217315</v>
+      </c>
+      <c r="E7">
         <v>5824.528382364772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41.34924358638511</v>
-      </c>
-      <c r="F7">
-        <v>1609.901108217315</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15521.74192006516</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.100292900917276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.07390088432198975</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5131.210605251367</v>
+      </c>
+      <c r="E7">
         <v>8830.35779688951</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139.4167030967809</v>
-      </c>
-      <c r="F7">
-        <v>5131.210605251367</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23531.95414072416</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.936147181590694</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1972055559371311</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>12710.51034892453</v>
+      </c>
+      <c r="E7">
         <v>11192.42255862579</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>372.0354457645057</v>
-      </c>
-      <c r="F7">
-        <v>12710.51034892453</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29826.60277548029</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.069138630454608</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.5419615813300228</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30809.13953391635</v>
+      </c>
+      <c r="E7">
         <v>15939.16024226265</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1022.430212674284</v>
-      </c>
-      <c r="F7">
-        <v>30809.13953391635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42476.14836113436</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>17.86446395116975</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.199862039307122</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>54444.14853792288</v>
+      </c>
+      <c r="E7">
         <v>21568.98084749003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2263.583328209287</v>
-      </c>
-      <c r="F7">
-        <v>54444.14853792288</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57479.01498896016</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28.23179019364042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.896180789282185</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64885.50765894962</v>
+      </c>
+      <c r="E7">
         <v>28518.11739836954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3577.213947337192</v>
-      </c>
-      <c r="F7">
-        <v>64885.50765894962</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75997.71676688007</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.35598535381007</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.770192848831633</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61595.33479258073</v>
+      </c>
+      <c r="E7">
         <v>36883.80067082068</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3339.533120528154</v>
-      </c>
-      <c r="F7">
-        <v>61595.33479258073</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>98291.3632590401</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.76621289971032</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9917688194349332</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61442.67886798014</v>
+      </c>
+      <c r="E7">
         <v>46709.02954909684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1871.007908881843</v>
-      </c>
-      <c r="F7">
-        <v>61442.67886798014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>124474.541868989</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.91131706452332</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8000204888844057</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65109.1015301774</v>
+      </c>
+      <c r="E7">
         <v>57968.889251366</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1509.267717070475</v>
-      </c>
-      <c r="F7">
-        <v>65109.1015301774</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>154480.8573818349</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>8.173581817966578E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0002178171676957395</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>19.72652275187497</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.324926730642439</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69210.34577807302</v>
+      </c>
+      <c r="E7">
         <v>70569.1105365181</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2499.522412020741</v>
-      </c>
-      <c r="F7">
-        <v>69210.34577807302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>188059.0924052924</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28.74364216329397</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.930559192676241</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>72305.62127786495</v>
+      </c>
+      <c r="E7">
         <v>84361.25147349667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3642.070054309435</v>
-      </c>
-      <c r="F7">
-        <v>72305.62127786495</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>224813.6651526966</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>40.43050867530366</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.715504519025754</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75490.42427877449</v>
+      </c>
+      <c r="E7">
         <v>99177.13807460097</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5122.89792957632</v>
-      </c>
-      <c r="F7">
-        <v>75490.42427877449</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>264296.4100279005</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>55.47003296610027</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.725630226412715</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81414.67073894116</v>
+      </c>
+      <c r="E7">
         <v>114888.5778282533</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7028.536774486451</v>
-      </c>
-      <c r="F7">
-        <v>81414.67073894116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>306165.7077700521</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>65.39309967147368</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.392110401011536</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81876.21873043905</v>
+      </c>
+      <c r="E7">
         <v>131498.1132455537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8285.875837129925</v>
-      </c>
-      <c r="F7">
-        <v>81876.21873043905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>350428.3338978775</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>78.25783206279564</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.256166780446376</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80747.92400734263</v>
+      </c>
+      <c r="E7">
         <v>149262.6768982202</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9915.949588151358</v>
-      </c>
-      <c r="F7">
-        <v>80747.92400734263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>397768.9860911302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>123.6185312910665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.302806255842798</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82373.68597231929</v>
+      </c>
+      <c r="E7">
         <v>168844.8355542554</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15663.54564307281</v>
-      </c>
-      <c r="F7">
-        <v>82373.68597231929</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>449953.3335512665</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>199.4675895012597</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.39718837177792</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82761.20328568625</v>
+      </c>
+      <c r="E7">
         <v>191474.8824096468</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25274.28258397759</v>
-      </c>
-      <c r="F7">
-        <v>82761.20328568625</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>510259.9753717249</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>285.765470262407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.19336291588861</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86077.5993385458</v>
+      </c>
+      <c r="E7">
         <v>219093.0578959591</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36208.97643679456</v>
-      </c>
-      <c r="F7">
-        <v>86077.5993385458</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>583859.4436994187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>368.9930295438638</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.78332012249509</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>89381.0276477201</v>
+      </c>
+      <c r="E7">
         <v>254426.7619298304</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46754.63379052221</v>
-      </c>
-      <c r="F7">
-        <v>89381.0276477201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>678019.9660782362</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.004109027342371736</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01095011608903703</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>355.321728982004</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.86509080327393</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87651.70874984402</v>
+      </c>
+      <c r="E7">
         <v>300948.6963006736</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45022.36082048786</v>
-      </c>
-      <c r="F7">
-        <v>87651.70874984402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>801995.9194125495</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>315.7906734012129</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.2099978156097</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81084.69529066254</v>
+      </c>
+      <c r="E7">
         <v>362680.9937781536</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40013.43143957945</v>
-      </c>
-      <c r="F7">
-        <v>81084.69529066254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>966505.8550975232</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>306.3999906781999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.5792750716573</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74096.977607245</v>
+      </c>
+      <c r="E7">
         <v>443839.6909470839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38823.55006891994</v>
-      </c>
-      <c r="F7">
-        <v>74096.977607245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1182785.0573483</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>278.0421535119619</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.67462837049537</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>77913.45001358425</v>
+      </c>
+      <c r="E7">
         <v>548345.515251948</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35230.36487125456</v>
-      </c>
-      <c r="F7">
-        <v>77913.45001358425</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1461281.843270938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>243.0768059759922</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.32618996706688</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96566.12839523837</v>
+      </c>
+      <c r="E7">
         <v>679257.2696286712</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30799.95050428543</v>
-      </c>
-      <c r="F7">
-        <v>96566.12839523837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1810147.593825229</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>216.29533807874</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.52741969471672</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>141528.302898615</v>
+      </c>
+      <c r="E7">
         <v>838198.9974348233</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27406.50503607014</v>
-      </c>
-      <c r="F7">
-        <v>141528.302898615</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2233710.209951534</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>280.4079763777252</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.83352824323229</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>224724.8859703028</v>
+      </c>
+      <c r="E7">
         <v>1024849.295737975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35530.1352540142</v>
-      </c>
-      <c r="F7">
-        <v>224724.8859703028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2731113.187390276</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>435.5752426539321</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.25529701596336</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>337680.1808062355</v>
+      </c>
+      <c r="E7">
         <v>1236544.690952956</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55191.18066722597</v>
-      </c>
-      <c r="F7">
-        <v>337680.1808062355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3295258.655397944</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>607.036295956538</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.77143372399712</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>462052.6225917752</v>
+      </c>
+      <c r="E7">
         <v>1468035.213068119</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76916.79094883587</v>
-      </c>
-      <c r="F7">
-        <v>462052.6225917752</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3912156.008339314</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>854.8514318573979</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>57.41587237863179</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>638802.5735249288</v>
+      </c>
+      <c r="E7">
         <v>1711433.875784307</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>108317.1291642109</v>
-      </c>
-      <c r="F7">
-        <v>638802.5735249288</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4560787.275689375</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.03975207560294276</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1059350075731426</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1175.722203071042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>78.9670736324059</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>864296.5581709248</v>
+      </c>
+      <c r="E7">
         <v>1956418.892481599</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>148974.2532858279</v>
-      </c>
-      <c r="F7">
-        <v>864296.5581709248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5213646.005843651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1335.87354624008</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.72359662340187</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>978990.9813781908</v>
+      </c>
+      <c r="E7">
         <v>2190756.558637964</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>169266.8246934363</v>
-      </c>
-      <c r="F7">
-        <v>978990.9813781908</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5838130.691546689</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1343.3598475989</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.22641209213437</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>986471.3254734015</v>
+      </c>
+      <c r="E7">
         <v>2401187.826933409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170215.4043425148</v>
-      </c>
-      <c r="F7">
-        <v>986471.3254734015</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6398907.397225264</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1332.780794360537</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.51587275397023</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>977932.3366888562</v>
+      </c>
+      <c r="E7">
         <v>2574651.571397338</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168874.9460671334</v>
-      </c>
-      <c r="F7">
-        <v>977932.3366888562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6861169.626422971</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1305.440612459201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.67957660196528</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>955136.6274674991</v>
+      </c>
+      <c r="E7">
         <v>2699717.179636856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165410.7066636321</v>
-      </c>
-      <c r="F7">
-        <v>955136.6274674991</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7194456.026064759</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1264.326500224308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>84.91815802902057</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>921011.6622836792</v>
+      </c>
+      <c r="E7">
         <v>2768004.862657273</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>160201.1902032775</v>
-      </c>
-      <c r="F7">
-        <v>921011.6622836792</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7376435.359425273</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1238.388960940316</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.17607000080066</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>895007.854630221</v>
+      </c>
+      <c r="E7">
         <v>2775326.23771808</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>156914.6778478831</v>
-      </c>
-      <c r="F7">
-        <v>895007.854630221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7395946.036811261</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1208.234791660734</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.1507731240342</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>861055.9755195105</v>
+      </c>
+      <c r="E7">
         <v>2722309.689563418</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153093.8817107119</v>
-      </c>
-      <c r="F7">
-        <v>861055.9755195105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7254662.636005638</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1112.417334382012</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>74.71521871804023</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>772112.6933075371</v>
+      </c>
+      <c r="E7">
         <v>2614386.32098689</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>140952.9745197452</v>
-      </c>
-      <c r="F7">
-        <v>772112.6933075371</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6967058.46203322</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>890.9007342232186</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>59.83711432412103</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>582986.6521424705</v>
+      </c>
+      <c r="E7">
         <v>2461169.801729407</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>112884.8900582345</v>
-      </c>
-      <c r="F7">
-        <v>582986.6521424705</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6558752.911148462</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1888704636328646</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5033194793433456</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>588.9340983884489</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.55560436861556</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>328680.786516247</v>
+      </c>
+      <c r="E7">
         <v>2275405.007817267</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74623.08469875866</v>
-      </c>
-      <c r="F7">
-        <v>328680.786516247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6063709.707707554</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>460.624547677932</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.93772702290206</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>197719.9077162743</v>
+      </c>
+      <c r="E7">
         <v>2071725.943519722</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58365.14599809408</v>
-      </c>
-      <c r="F7">
-        <v>197719.9077162743</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5520926.899726234</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>475.4780591752295</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.93535922976445</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>183176.1084737259</v>
+      </c>
+      <c r="E7">
         <v>1865425.31634607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60247.21540037501</v>
-      </c>
-      <c r="F7">
-        <v>183176.1084737259</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4971157.90853507</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>456.1200107927423</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.63518098357106</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>169364.7424141912</v>
+      </c>
+      <c r="E7">
         <v>1671325.95114278</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57794.38190338125</v>
-      </c>
-      <c r="F7">
-        <v>169364.7424141912</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4453903.968687195</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>396.4730650536489</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.62900950545829</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>141878.9124473387</v>
+      </c>
+      <c r="E7">
         <v>1502739.684827019</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50236.59386548296</v>
-      </c>
-      <c r="F7">
-        <v>141878.9124473387</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4004639.694356674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>325.1350689140572</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.83761169122221</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>111098.1739836981</v>
+      </c>
+      <c r="E7">
         <v>1370483.695276498</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41197.44781717041</v>
-      </c>
-      <c r="F7">
-        <v>111098.1739836981</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3652191.701588451</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>281.6084316538887</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.91415650723684</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>110328.0215552471</v>
+      </c>
+      <c r="E7">
         <v>1282012.135325729</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35682.24340328821</v>
-      </c>
-      <c r="F7">
-        <v>110328.0215552471</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3416424.506259948</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>274.5385299374088</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.43930841135086</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>146490.4249266336</v>
+      </c>
+      <c r="E7">
         <v>1240837.002187633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34786.42521914088</v>
-      </c>
-      <c r="F7">
-        <v>146490.4249266336</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3306697.203354374</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>307.9210808993393</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.68143869770816</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>211199.9087732406</v>
+      </c>
+      <c r="E7">
         <v>1246443.358898584</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39016.28546107526</v>
-      </c>
-      <c r="F7">
-        <v>211199.9087732406</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3321637.541226654</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>404.1769782530043</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.14644081642794</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>306014.820748542</v>
+      </c>
+      <c r="E7">
         <v>1294790.669862147</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51212.74683193627</v>
-      </c>
-      <c r="F7">
-        <v>306014.820748542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3450477.926926837</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.637832766790476E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.458282981180271E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.804396237154508E-10</v>
+      </c>
+      <c r="E7">
         <v>0.6662326169639555</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.410712813671861E-13</v>
-      </c>
-      <c r="F7">
-        <v>1.804396237154508E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.775438294807593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>562.7315724422076</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.79571858067419</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>427984.3099115764</v>
+      </c>
+      <c r="E7">
         <v>1379282.389984954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71302.99622305606</v>
-      </c>
-      <c r="F7">
-        <v>427984.3099115764</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3675639.277002729</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>763.7121662186902</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51.29452748806469</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>572641.739996735</v>
+      </c>
+      <c r="E7">
         <v>1491908.166995413</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>96768.98963934665</v>
-      </c>
-      <c r="F7">
-        <v>572641.739996735</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3975774.863876355</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>987.6355001697355</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>66.33427952637635</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>731995.5011919895</v>
+      </c>
+      <c r="E7">
         <v>1624232.087849533</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>125142.028254672</v>
-      </c>
-      <c r="F7">
-        <v>731995.5011919895</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4328403.8862651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1189.278257108709</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.87756244903385</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>874908.5199637545</v>
+      </c>
+      <c r="E7">
         <v>1768032.989092931</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150691.9235165072</v>
-      </c>
-      <c r="F7">
-        <v>874908.5199637545</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4711617.827454032</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1305.601781854022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.69040150212864</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>957575.6740788417</v>
+      </c>
+      <c r="E7">
         <v>1915604.434784166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165431.1282310595</v>
-      </c>
-      <c r="F7">
-        <v>957575.6740788417</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5104879.864209752</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1333.12792299112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.53918755746685</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>976881.1887054577</v>
+      </c>
+      <c r="E7">
         <v>2059861.235796796</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168918.9302909579</v>
-      </c>
-      <c r="F7">
-        <v>976881.1887054577</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5489308.729268034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1319.135618395035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.59939808641666</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>964769.1605905449</v>
+      </c>
+      <c r="E7">
         <v>2194410.065448469</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167145.9833112167</v>
-      </c>
-      <c r="F7">
-        <v>964769.1605905449</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5847866.894393184</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1292.121058433647</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.78497224666825</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>940836.9212611782</v>
+      </c>
+      <c r="E7">
         <v>2313660.997003346</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>163723.0030463369</v>
-      </c>
-      <c r="F7">
-        <v>940836.9212611782</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6165657.805830144</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1260.802608100697</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>84.68147673809067</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>910850.0265000503</v>
+      </c>
+      <c r="E7">
         <v>2412973.275983231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>159754.6823492933</v>
-      </c>
-      <c r="F7">
-        <v>910850.0265000503</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6430314.351841074</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1230.42689848395</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.64130016264046</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>877140.7323608052</v>
+      </c>
+      <c r="E7">
         <v>2488798.955251889</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>155905.8151199751</v>
-      </c>
-      <c r="F7">
-        <v>877140.7323608052</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6632381.634762254</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.483740071593565E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.683139647132598E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.173751930005717E-08</v>
+      </c>
+      <c r="E7">
         <v>2.12758605030931</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.948376752989339E-11</v>
-      </c>
-      <c r="F7">
-        <v>1.173751930005717E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.669788078571282</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1192.698281178928</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.10726746937976</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>831781.5197633964</v>
+      </c>
+      <c r="E7">
         <v>2538804.124201526</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>151125.2703825863</v>
-      </c>
-      <c r="F7">
-        <v>831781.5197633964</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6765640.033752219</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1114.479444923262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>74.85371983209912</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>750075.6434722256</v>
+      </c>
+      <c r="E7">
         <v>2561969.684896723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>141214.2619031707</v>
-      </c>
-      <c r="F7">
-        <v>750075.6434722256</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6827373.762380468</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>955.2449547122339</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>64.15877702973623</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>604975.8664645395</v>
+      </c>
+      <c r="E7">
         <v>2558676.014516039</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>121037.8637586304</v>
-      </c>
-      <c r="F7">
-        <v>604975.8664645395</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6818596.484931958</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>773.7257700952083</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51.96708856803517</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442891.5616949578</v>
+      </c>
+      <c r="E7">
         <v>2530760.228245937</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>98037.80055089343</v>
-      </c>
-      <c r="F7">
-        <v>442891.5616949578</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6744203.91586282</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>662.8851965997503</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.52251049864828</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>337262.1169363446</v>
+      </c>
+      <c r="E7">
         <v>2481515.662922016</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83993.33356104867</v>
-      </c>
-      <c r="F7">
-        <v>337262.1169363446</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6612972.443759776</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>616.8473433121754</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.43039014832931</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>291584.3608194134</v>
+      </c>
+      <c r="E7">
         <v>2415592.33797095</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78159.93618326305</v>
-      </c>
-      <c r="F7">
-        <v>291584.3608194134</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6437293.870452248</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>580.6417831703262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.99865319026563</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>269443.6623251915</v>
+      </c>
+      <c r="E7">
         <v>2338760.816108774</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73572.37606673337</v>
-      </c>
-      <c r="F7">
-        <v>269443.6623251915</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6232546.125161606</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>532.0869808245999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.73748261610558</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>251452.9470202913</v>
+      </c>
+      <c r="E7">
         <v>2257522.917379707</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67420.0593000673</v>
-      </c>
-      <c r="F7">
-        <v>251452.9470202913</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6016055.859268349</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>485.3834444286389</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.60065183427611</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>243323.9036437939</v>
+      </c>
+      <c r="E7">
         <v>2178589.664411568</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61502.31406890455</v>
-      </c>
-      <c r="F7">
-        <v>243323.9036437939</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5805707.226546045</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>461.5421549436134</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.99935787441223</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>258084.7588894542</v>
+      </c>
+      <c r="E7">
         <v>2108289.838620024</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58481.41483852036</v>
-      </c>
-      <c r="F7">
-        <v>258084.7588894542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5618365.749034205</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.212362896157812E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.485927740976245E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.989437074977151E-07</v>
+      </c>
+      <c r="E7">
         <v>5.889175013481565</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.803256667191364E-09</v>
-      </c>
-      <c r="F7">
-        <v>3.989437074977151E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15.69401824156694</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>475.3864978254617</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.92920953570398</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302686.632704573</v>
+      </c>
+      <c r="E7">
         <v>2052003.85427296</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60235.61377911118</v>
-      </c>
-      <c r="F7">
-        <v>302686.632704573</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5468369.652286326</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>539.9757584929304</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.26733030068409</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>379065.3284624089</v>
+      </c>
+      <c r="E7">
         <v>2013720.43967723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68419.63620642127</v>
-      </c>
-      <c r="F7">
-        <v>379065.3284624089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5366348.468395636</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>659.1188836240619</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.26954707472296</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>483680.7316596307</v>
+      </c>
+      <c r="E7">
         <v>1995783.124622874</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83516.10887163793</v>
-      </c>
-      <c r="F7">
-        <v>483680.7316596307</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5318547.452290093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>822.2497156709433</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>55.22618665532576</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>608742.0955671503</v>
+      </c>
+      <c r="E7">
         <v>1998842.889402027</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>104186.2074957867</v>
-      </c>
-      <c r="F7">
-        <v>608742.0955671503</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5326701.396458674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1007.953350365328</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>67.69892260979923</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>743463.877280787</v>
+      </c>
+      <c r="E7">
         <v>2021986.015772699</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>127716.4770091103</v>
-      </c>
-      <c r="F7">
-        <v>743463.877280787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5388375.340024068</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1187.654856667716</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.76852718388028</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>871614.5972580725</v>
+      </c>
+      <c r="E7">
         <v>2062980.734114226</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150486.2245275376</v>
-      </c>
-      <c r="F7">
-        <v>871614.5972580725</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5497621.856893922</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1331.39341725048</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.42268993398127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>973472.0129746244</v>
+      </c>
+      <c r="E7">
         <v>2118586.000598406</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168699.1532918871</v>
-      </c>
-      <c r="F7">
-        <v>973472.0129746244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5645803.913723986</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1414.638838342434</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>95.0138468244085</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1031803.497934009</v>
+      </c>
+      <c r="E7">
         <v>2184880.183552639</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>179247.0738927272</v>
-      </c>
-      <c r="F7">
-        <v>1031803.497934009</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5822470.783737486</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1437.571502121289</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>96.55411317685285</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1046185.784119922</v>
+      </c>
+      <c r="E7">
         <v>2257583.449144565</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>182152.842324578</v>
-      </c>
-      <c r="F7">
-        <v>1046185.784119922</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6016217.169913678</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1422.839275687377</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>95.56462704948602</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1031723.235752271</v>
+      </c>
+      <c r="E7">
         <v>2332357.984445938</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>180286.1407972129</v>
-      </c>
-      <c r="F7">
-        <v>1031723.235752271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6215483.267174842</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
